--- a/BackTest/2019-10-21 BackTest BAT.xlsx
+++ b/BackTest/2019-10-21 BackTest BAT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>12</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>16.66666666666666</v>
+      </c>
       <c r="L12" t="n">
         <v>264.3</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>15</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>264.8</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>18</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>17.64705882352941</v>
+      </c>
       <c r="L14" t="n">
         <v>265</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>18</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>265.3</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>18</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>16.66666666666666</v>
+      </c>
       <c r="L16" t="n">
         <v>265.3</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>19</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>265.6</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>19</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L18" t="n">
         <v>265.6</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>21</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-20</v>
+      </c>
       <c r="L19" t="n">
         <v>265.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>21</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L20" t="n">
         <v>265.3</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>21</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L21" t="n">
         <v>265.2</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>24</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-77.77777777777779</v>
+      </c>
       <c r="L22" t="n">
         <v>264.8</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>25</v>
       </c>
       <c r="K23" t="n">
-        <v>-4</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L23" t="n">
         <v>264.2</v>
@@ -1466,7 +1488,7 @@
         <v>28</v>
       </c>
       <c r="K24" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>264.2</v>
@@ -1515,7 +1537,7 @@
         <v>31</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L25" t="n">
         <v>263.9</v>
@@ -1564,7 +1586,7 @@
         <v>33</v>
       </c>
       <c r="K26" t="n">
-        <v>-3.448275862068965</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L26" t="n">
         <v>263.8</v>
@@ -1613,7 +1635,7 @@
         <v>33</v>
       </c>
       <c r="K27" t="n">
-        <v>3.703703703703703</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L27" t="n">
         <v>263.6</v>
@@ -1662,7 +1684,7 @@
         <v>33</v>
       </c>
       <c r="K28" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>263.4</v>
@@ -1711,7 +1733,7 @@
         <v>35</v>
       </c>
       <c r="K29" t="n">
-        <v>-12</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L29" t="n">
         <v>263.2</v>
@@ -1760,7 +1782,7 @@
         <v>35</v>
       </c>
       <c r="K30" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L30" t="n">
         <v>263</v>
@@ -1809,7 +1831,7 @@
         <v>35</v>
       </c>
       <c r="K31" t="n">
-        <v>-13.04347826086956</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L31" t="n">
         <v>262.8</v>
@@ -1860,7 +1882,7 @@
         <v>35</v>
       </c>
       <c r="K32" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>262.9</v>
@@ -1911,7 +1933,7 @@
         <v>35</v>
       </c>
       <c r="K33" t="n">
-        <v>-30</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L33" t="n">
         <v>262.9</v>
@@ -1962,7 +1984,7 @@
         <v>35</v>
       </c>
       <c r="K34" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>262.6</v>
@@ -2013,7 +2035,7 @@
         <v>35</v>
       </c>
       <c r="K35" t="n">
-        <v>-17.64705882352941</v>
+        <v>-100</v>
       </c>
       <c r="L35" t="n">
         <v>262.6</v>
@@ -2064,7 +2086,7 @@
         <v>36</v>
       </c>
       <c r="K36" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>262.5</v>
@@ -2115,7 +2137,7 @@
         <v>37</v>
       </c>
       <c r="K37" t="n">
-        <v>-22.22222222222222</v>
+        <v>-50</v>
       </c>
       <c r="L37" t="n">
         <v>262.3</v>
@@ -2166,7 +2188,7 @@
         <v>38</v>
       </c>
       <c r="K38" t="n">
-        <v>-26.31578947368421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L38" t="n">
         <v>262</v>
@@ -2217,7 +2239,7 @@
         <v>38</v>
       </c>
       <c r="K39" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>261.9</v>
@@ -2268,7 +2290,7 @@
         <v>38</v>
       </c>
       <c r="K40" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>261.8</v>
@@ -2319,7 +2341,7 @@
         <v>39</v>
       </c>
       <c r="K41" t="n">
-        <v>-22.22222222222222</v>
+        <v>-50</v>
       </c>
       <c r="L41" t="n">
         <v>261.6</v>
@@ -2370,7 +2392,7 @@
         <v>39</v>
       </c>
       <c r="K42" t="n">
-        <v>-6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L42" t="n">
         <v>261.4</v>
@@ -2421,7 +2443,7 @@
         <v>39</v>
       </c>
       <c r="K43" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L43" t="n">
         <v>261.2</v>
@@ -2472,7 +2494,7 @@
         <v>40</v>
       </c>
       <c r="K44" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="L44" t="n">
         <v>260.9</v>
@@ -2523,7 +2545,7 @@
         <v>40</v>
       </c>
       <c r="K45" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L45" t="n">
         <v>260.6</v>
@@ -2625,7 +2647,7 @@
         <v>41</v>
       </c>
       <c r="K47" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>260.1</v>
@@ -2727,7 +2749,7 @@
         <v>43</v>
       </c>
       <c r="K49" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="L49" t="n">
         <v>259.5</v>
@@ -2778,7 +2800,7 @@
         <v>44</v>
       </c>
       <c r="K50" t="n">
-        <v>-55.55555555555556</v>
+        <v>-60</v>
       </c>
       <c r="L50" t="n">
         <v>259.1</v>
@@ -2829,7 +2851,7 @@
         <v>44</v>
       </c>
       <c r="K51" t="n">
-        <v>-55.55555555555556</v>
+        <v>-60</v>
       </c>
       <c r="L51" t="n">
         <v>258.8</v>
@@ -2880,7 +2902,7 @@
         <v>44</v>
       </c>
       <c r="K52" t="n">
-        <v>-55.55555555555556</v>
+        <v>-60</v>
       </c>
       <c r="L52" t="n">
         <v>258.5</v>
@@ -2931,7 +2953,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>258.4</v>
@@ -2982,7 +3004,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="n">
-        <v>-16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L54" t="n">
         <v>258.5</v>
@@ -3033,7 +3055,7 @@
         <v>47</v>
       </c>
       <c r="K55" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>258.6</v>
@@ -3084,7 +3106,7 @@
         <v>47</v>
       </c>
       <c r="K56" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>258.6</v>
@@ -3135,7 +3157,7 @@
         <v>48</v>
       </c>
       <c r="K57" t="n">
-        <v>-27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L57" t="n">
         <v>258.5</v>
@@ -3186,7 +3208,7 @@
         <v>49</v>
       </c>
       <c r="K58" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>258.7</v>
@@ -3237,7 +3259,7 @@
         <v>49</v>
       </c>
       <c r="K59" t="n">
-        <v>-9.090909090909092</v>
+        <v>60</v>
       </c>
       <c r="L59" t="n">
         <v>258.9</v>
@@ -3288,7 +3310,7 @@
         <v>49</v>
       </c>
       <c r="K60" t="n">
-        <v>-9.090909090909092</v>
+        <v>60</v>
       </c>
       <c r="L60" t="n">
         <v>259.2</v>
@@ -3339,7 +3361,7 @@
         <v>50</v>
       </c>
       <c r="K61" t="n">
-        <v>9.090909090909092</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L61" t="n">
         <v>259.6</v>
@@ -3390,7 +3412,7 @@
         <v>50</v>
       </c>
       <c r="K62" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L62" t="n">
         <v>260</v>
@@ -3492,7 +3514,7 @@
         <v>55</v>
       </c>
       <c r="K64" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L64" t="n">
         <v>260.5</v>
@@ -3543,7 +3565,7 @@
         <v>58</v>
       </c>
       <c r="K65" t="n">
-        <v>11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L65" t="n">
         <v>260.6</v>
@@ -3594,7 +3616,7 @@
         <v>58</v>
       </c>
       <c r="K66" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L66" t="n">
         <v>260.7</v>
@@ -3645,7 +3667,7 @@
         <v>61</v>
       </c>
       <c r="K67" t="n">
-        <v>-10</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L67" t="n">
         <v>260.6</v>
@@ -3696,7 +3718,7 @@
         <v>62</v>
       </c>
       <c r="K68" t="n">
-        <v>5.263157894736842</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L68" t="n">
         <v>260.5</v>
@@ -3747,7 +3769,7 @@
         <v>63</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L69" t="n">
         <v>260.3</v>
@@ -3798,7 +3820,7 @@
         <v>63</v>
       </c>
       <c r="K70" t="n">
-        <v>5.263157894736842</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L70" t="n">
         <v>260.1</v>
@@ -3849,7 +3871,7 @@
         <v>63</v>
       </c>
       <c r="K71" t="n">
-        <v>5.263157894736842</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L71" t="n">
         <v>259.8</v>
@@ -3900,7 +3922,7 @@
         <v>64</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L72" t="n">
         <v>259.4</v>
@@ -3951,7 +3973,7 @@
         <v>64</v>
       </c>
       <c r="K73" t="n">
-        <v>-11.11111111111111</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L73" t="n">
         <v>259.1</v>
@@ -4002,7 +4024,7 @@
         <v>66</v>
       </c>
       <c r="K74" t="n">
-        <v>-5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L74" t="n">
         <v>258.6</v>
@@ -4053,7 +4075,7 @@
         <v>68</v>
       </c>
       <c r="K75" t="n">
-        <v>-14.28571428571428</v>
+        <v>-40</v>
       </c>
       <c r="L75" t="n">
         <v>258.2</v>

--- a/BackTest/2019-10-21 BackTest BAT.xlsx
+++ b/BackTest/2019-10-21 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>40560.31440000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>44260.31440000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>265</v>
-      </c>
-      <c r="K3" t="n">
-        <v>265</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,22 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>265</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,26 +550,15 @@
         <v>39416.85950000002</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>260</v>
-      </c>
-      <c r="K5" t="n">
-        <v>265</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,26 +583,15 @@
         <v>39032.24420000002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>264</v>
-      </c>
-      <c r="K6" t="n">
-        <v>265</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -662,26 +616,15 @@
         <v>47072.27300000002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>260</v>
-      </c>
-      <c r="K7" t="n">
-        <v>265</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,22 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>265</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -750,22 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>265</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,22 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>265</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -834,22 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>265</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -874,24 +781,19 @@
         <v>47154.62410000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>265</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="J12" t="n">
+        <v>264</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -916,24 +818,21 @@
         <v>47154.62410000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>265</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>264</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -958,24 +857,21 @@
         <v>47154.62410000002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>265</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>264</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1000,24 +896,15 @@
         <v>47654.62410000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>265</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1042,24 +929,15 @@
         <v>45854.63360000002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>265</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1084,24 +962,15 @@
         <v>49112.84620000002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>265</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1126,24 +995,15 @@
         <v>49112.84620000002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>265</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1168,24 +1028,15 @@
         <v>48148.84620000002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>265</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1210,24 +1061,15 @@
         <v>61692.49910000002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>265</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1252,24 +1094,15 @@
         <v>63046.65140000002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>265</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1.010094339622642</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1294,18 +1127,15 @@
         <v>63046.65140000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1330,18 +1160,15 @@
         <v>63046.65140000002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1366,18 +1193,15 @@
         <v>63046.65140000002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1402,18 +1226,15 @@
         <v>63046.65140000002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1438,18 +1259,15 @@
         <v>63046.65140000002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1474,18 +1292,15 @@
         <v>60876.91470000002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1510,18 +1325,15 @@
         <v>60876.91470000002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1546,18 +1358,15 @@
         <v>60876.91470000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1582,18 +1391,15 @@
         <v>60876.91470000002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1620,16 +1426,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1656,16 +1459,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1692,16 +1492,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1728,16 +1525,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1764,16 +1558,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1800,16 +1591,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1836,16 +1624,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1872,16 +1657,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1908,16 +1690,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1944,16 +1723,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1980,16 +1756,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2014,18 +1787,15 @@
         <v>48593.07700895525</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2050,18 +1820,15 @@
         <v>48593.07700895525</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2088,16 +1855,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2122,18 +1886,15 @@
         <v>44397.22300895525</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2160,16 +1921,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2194,18 +1952,15 @@
         <v>77045.90240895524</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2230,18 +1985,15 @@
         <v>77045.90240895524</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2266,18 +2018,15 @@
         <v>77035.15560895525</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2302,18 +2051,15 @@
         <v>77035.15560895525</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2338,18 +2084,15 @@
         <v>77040.28240895525</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2376,16 +2119,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2410,18 +2150,15 @@
         <v>76953.38690895525</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2448,16 +2185,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2482,18 +2216,15 @@
         <v>73019.96430895524</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2520,16 +2251,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2556,16 +2284,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2592,16 +2317,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2628,16 +2350,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2664,16 +2383,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2700,16 +2416,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2736,16 +2449,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2770,18 +2480,15 @@
         <v>73097.77820895523</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2808,16 +2515,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2844,16 +2548,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2880,16 +2581,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2916,16 +2614,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2952,16 +2647,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2988,16 +2680,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3024,16 +2713,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3060,16 +2746,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3096,16 +2779,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3132,16 +2812,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3168,16 +2845,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3204,16 +2878,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3240,16 +2911,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3276,16 +2944,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3312,16 +2977,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3348,16 +3010,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3384,16 +3043,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3420,16 +3076,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3456,16 +3109,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3492,16 +3142,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3528,16 +3175,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3564,16 +3208,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3600,16 +3241,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3636,16 +3274,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3672,16 +3307,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3708,16 +3340,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3744,16 +3373,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3780,16 +3406,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3816,16 +3439,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3852,16 +3472,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3888,16 +3505,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3924,16 +3538,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3960,16 +3571,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3996,16 +3604,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4032,16 +3637,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4068,16 +3670,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4104,16 +3703,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4140,16 +3736,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4176,16 +3769,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4212,16 +3802,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4246,18 +3833,15 @@
         <v>47137.47580895525</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4284,16 +3868,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4320,16 +3901,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4356,16 +3934,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4392,16 +3967,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4428,16 +4000,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4464,16 +4033,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4498,18 +4064,19 @@
         <v>45298.56050895525</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>257</v>
+      </c>
+      <c r="J111" t="n">
+        <v>257</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4534,22 +4101,23 @@
         <v>45330.62300895525</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="J112" t="n">
         <v>257</v>
       </c>
-      <c r="K112" t="n">
-        <v>257</v>
-      </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4576,22 +4144,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
         <v>257</v>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4618,22 +4183,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>257</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4660,16 +4216,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4694,18 +4247,15 @@
         <v>43526.77870895524</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4730,22 +4280,15 @@
         <v>47515.05620895524</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>259</v>
-      </c>
-      <c r="K117" t="n">
-        <v>259</v>
-      </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4772,22 +4315,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>259</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4812,26 +4346,15 @@
         <v>47515.05620895524</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>260</v>
-      </c>
-      <c r="K119" t="n">
-        <v>259</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4858,16 +4381,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4894,16 +4414,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4930,16 +4447,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4966,18 +4480,15 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest BAT.xlsx
+++ b/BackTest/2019-10-21 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>40560.31440000002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>44260.31440000002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>265</v>
+      </c>
+      <c r="J3" t="n">
+        <v>265</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>39260.31440000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>267</v>
+      </c>
+      <c r="J4" t="n">
+        <v>265</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +565,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>265</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,19 @@
         <v>39032.24420000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>264</v>
+      </c>
+      <c r="J6" t="n">
+        <v>265</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +642,19 @@
         <v>47072.27300000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>260</v>
+      </c>
+      <c r="J7" t="n">
+        <v>265</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +686,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>265</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +725,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>265</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +764,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>265</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +803,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>265</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,15 +839,17 @@
         <v>47154.62410000002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>264</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+        <v>265</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,15 +878,15 @@
         <v>47154.62410000002</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -857,15 +917,15 @@
         <v>47154.62410000002</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -896,11 +956,17 @@
         <v>47654.62410000002</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>265</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -929,11 +995,17 @@
         <v>45854.63360000002</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>265</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -962,11 +1034,17 @@
         <v>49112.84620000002</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>265</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -995,11 +1073,17 @@
         <v>49112.84620000002</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>265</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1028,11 +1112,17 @@
         <v>48148.84620000002</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>265</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1061,11 +1151,17 @@
         <v>61692.49910000002</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>265</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1094,11 +1190,17 @@
         <v>63046.65140000002</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>265</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1127,11 +1229,17 @@
         <v>63046.65140000002</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>265</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1160,11 +1268,17 @@
         <v>63046.65140000002</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>265</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1307,17 @@
         <v>63046.65140000002</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>265</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1226,11 +1346,17 @@
         <v>63046.65140000002</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>265</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1259,11 +1385,17 @@
         <v>63046.65140000002</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>265</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1292,11 +1424,17 @@
         <v>60876.91470000002</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>265</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1325,11 +1463,17 @@
         <v>60876.91470000002</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>265</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1358,11 +1502,17 @@
         <v>60876.91470000002</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>265</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1391,13 +1541,19 @@
         <v>60876.91470000002</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>265</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>1.002547169811321</v>
       </c>
       <c r="M30" t="inlineStr"/>
     </row>
@@ -1622,7 +1778,7 @@
         <v>48483.94790895525</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1655,7 +1811,7 @@
         <v>47070.04960895525</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1688,7 +1844,7 @@
         <v>47923.64790895524</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1721,7 +1877,7 @@
         <v>47923.64790895524</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1754,7 +1910,7 @@
         <v>48593.07700895525</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1787,7 +1943,7 @@
         <v>48593.07700895525</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1820,7 +1976,7 @@
         <v>48593.07700895525</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1853,7 +2009,7 @@
         <v>45519.22300895525</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1886,7 +2042,7 @@
         <v>44397.22300895525</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1919,7 +2075,7 @@
         <v>78298.59370895525</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1952,7 +2108,7 @@
         <v>77045.90240895524</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1985,7 +2141,7 @@
         <v>77045.90240895524</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2018,7 +2174,7 @@
         <v>77035.15560895525</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2051,7 +2207,7 @@
         <v>77035.15560895525</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2084,7 +2240,7 @@
         <v>77040.28240895525</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2150,7 +2306,7 @@
         <v>76953.38690895525</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2216,7 +2372,7 @@
         <v>73019.96430895524</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2315,7 +2471,7 @@
         <v>72979.52860895524</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2348,7 +2504,7 @@
         <v>73079.52860895524</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2381,7 +2537,7 @@
         <v>80379.36430895524</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2414,7 +2570,7 @@
         <v>73097.77820895523</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2447,7 +2603,7 @@
         <v>73097.77820895523</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2480,7 +2636,7 @@
         <v>73097.77820895523</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2513,7 +2669,7 @@
         <v>69847.71110895523</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2546,7 +2702,7 @@
         <v>80277.66950895524</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2579,7 +2735,7 @@
         <v>66967.88090895524</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2612,7 +2768,7 @@
         <v>73805.52750895525</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2645,7 +2801,7 @@
         <v>72923.82840895525</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2678,7 +2834,7 @@
         <v>73322.82840895525</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2711,7 +2867,7 @@
         <v>73312.97020895524</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2744,7 +2900,7 @@
         <v>73312.97020895524</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2777,7 +2933,7 @@
         <v>73540.77990895524</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2810,7 +2966,7 @@
         <v>70016.43610895524</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2843,7 +2999,7 @@
         <v>70016.43610895524</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2876,7 +3032,7 @@
         <v>70016.43610895524</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2942,7 +3098,7 @@
         <v>70021.41350895524</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3338,7 +3494,7 @@
         <v>52583.92480895524</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3371,7 +3527,7 @@
         <v>52583.92480895524</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3404,7 +3560,7 @@
         <v>52583.92480895524</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3437,7 +3593,7 @@
         <v>52583.92480895524</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3833,7 +3989,7 @@
         <v>47137.47580895525</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4064,14 +4220,10 @@
         <v>45298.56050895525</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>257</v>
-      </c>
-      <c r="J111" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4101,19 +4253,11 @@
         <v>45330.62300895525</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>257</v>
-      </c>
-      <c r="J112" t="n">
-        <v>257</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4145,14 +4289,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>257</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4247,7 +4385,7 @@
         <v>43526.77870895524</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4489,6 +4627,6 @@
       <c r="M123" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest BAT.xlsx
+++ b/BackTest/2019-10-21 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>40560.31440000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>44260.31440000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>265</v>
-      </c>
-      <c r="J3" t="n">
-        <v>265</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>39260.31440000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>267</v>
-      </c>
-      <c r="J4" t="n">
-        <v>265</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>39416.85950000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>265</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,19 +583,11 @@
         <v>39032.24420000002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>264</v>
-      </c>
-      <c r="J6" t="n">
-        <v>265</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -642,19 +616,11 @@
         <v>47072.27300000002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>260</v>
-      </c>
-      <c r="J7" t="n">
-        <v>265</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -683,17 +649,11 @@
         <v>47076.42330000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>265</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,17 +682,11 @@
         <v>47076.42330000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>265</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -761,17 +715,11 @@
         <v>47062.43880000003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>265</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,17 +748,11 @@
         <v>47058.29890000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>265</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -842,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>265</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -878,17 +814,11 @@
         <v>47154.62410000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>265</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -917,17 +847,11 @@
         <v>47154.62410000002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>265</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -956,17 +880,11 @@
         <v>47654.62410000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>265</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -995,17 +913,11 @@
         <v>45854.63360000002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>265</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1034,17 +946,11 @@
         <v>49112.84620000002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>265</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1076,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>265</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1115,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>265</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1154,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>265</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1193,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>265</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1232,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>265</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1271,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>265</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1310,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>265</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1349,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>265</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1388,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>265</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1427,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>265</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1466,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>265</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1505,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>265</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1541,19 +1375,13 @@
         <v>60876.91470000002</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>265</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.002547169811321</v>
+        <v>1</v>
       </c>
       <c r="M30" t="inlineStr"/>
     </row>
@@ -1778,7 +1606,7 @@
         <v>48483.94790895525</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1811,7 +1639,7 @@
         <v>47070.04960895525</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1844,7 +1672,7 @@
         <v>47923.64790895524</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1877,7 +1705,7 @@
         <v>47923.64790895524</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1910,7 +1738,7 @@
         <v>48593.07700895525</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1943,7 +1771,7 @@
         <v>48593.07700895525</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1976,7 +1804,7 @@
         <v>48593.07700895525</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2009,7 +1837,7 @@
         <v>45519.22300895525</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2042,7 +1870,7 @@
         <v>44397.22300895525</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2075,7 +1903,7 @@
         <v>78298.59370895525</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2108,7 +1936,7 @@
         <v>77045.90240895524</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2141,7 +1969,7 @@
         <v>77045.90240895524</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2174,7 +2002,7 @@
         <v>77035.15560895525</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2471,7 +2299,7 @@
         <v>72979.52860895524</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2504,7 +2332,7 @@
         <v>73079.52860895524</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2537,7 +2365,7 @@
         <v>80379.36430895524</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2570,7 +2398,7 @@
         <v>73097.77820895523</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2603,7 +2431,7 @@
         <v>73097.77820895523</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2636,7 +2464,7 @@
         <v>73097.77820895523</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2669,7 +2497,7 @@
         <v>69847.71110895523</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2702,7 +2530,7 @@
         <v>80277.66950895524</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2735,7 +2563,7 @@
         <v>66967.88090895524</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2768,7 +2596,7 @@
         <v>73805.52750895525</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2801,7 +2629,7 @@
         <v>72923.82840895525</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2834,7 +2662,7 @@
         <v>73322.82840895525</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2867,7 +2695,7 @@
         <v>73312.97020895524</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2900,7 +2728,7 @@
         <v>73312.97020895524</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2933,7 +2761,7 @@
         <v>73540.77990895524</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2966,7 +2794,7 @@
         <v>70016.43610895524</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2999,7 +2827,7 @@
         <v>70016.43610895524</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3032,7 +2860,7 @@
         <v>70016.43610895524</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3098,7 +2926,7 @@
         <v>70021.41350895524</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3494,7 +3322,7 @@
         <v>52583.92480895524</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3527,7 +3355,7 @@
         <v>52583.92480895524</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3560,7 +3388,7 @@
         <v>52583.92480895524</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3593,7 +3421,7 @@
         <v>52583.92480895524</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4187,10 +4015,14 @@
         <v>45298.56050895525</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>257</v>
+      </c>
+      <c r="J110" t="n">
+        <v>257</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
@@ -4220,11 +4052,19 @@
         <v>45298.56050895525</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>257</v>
+      </c>
+      <c r="J111" t="n">
+        <v>257</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4253,11 +4093,19 @@
         <v>45330.62300895525</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>257</v>
+      </c>
+      <c r="J112" t="n">
+        <v>257</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4286,10 +4134,14 @@
         <v>45368.04760895525</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>259</v>
+      </c>
+      <c r="J113" t="n">
+        <v>259</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
@@ -4322,8 +4174,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>259</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4355,8 +4213,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>259</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4385,10 +4249,14 @@
         <v>43526.77870895524</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>260</v>
+      </c>
+      <c r="J116" t="n">
+        <v>260</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
@@ -4418,11 +4286,19 @@
         <v>47515.05620895524</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>259</v>
+      </c>
+      <c r="J117" t="n">
+        <v>260</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4454,8 +4330,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>260</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4517,10 +4399,14 @@
         <v>47552.48080895524</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>260</v>
+      </c>
+      <c r="J120" t="n">
+        <v>260</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
@@ -4550,11 +4436,19 @@
         <v>47552.48080895524</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>261</v>
+      </c>
+      <c r="J121" t="n">
+        <v>260</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4583,11 +4477,19 @@
         <v>32052.48080895524</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>261</v>
+      </c>
+      <c r="J122" t="n">
+        <v>260</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4616,17 +4518,25 @@
         <v>32078.48080895524</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>260</v>
+      </c>
+      <c r="J123" t="n">
+        <v>260</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
       <c r="M123" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest BAT.xlsx
+++ b/BackTest/2019-10-21 BackTest BAT.xlsx
@@ -451,7 +451,7 @@
         <v>40560.31440000002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>44260.31440000002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>265</v>
+      </c>
+      <c r="J3" t="n">
+        <v>265</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>39260.31440000002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>267</v>
+      </c>
+      <c r="J4" t="n">
+        <v>265</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>39416.85950000002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>260</v>
+      </c>
+      <c r="J5" t="n">
+        <v>265</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,17 @@
         <v>39032.24420000002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>265</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +642,19 @@
         <v>47072.27300000002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>260</v>
+      </c>
+      <c r="J7" t="n">
+        <v>265</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +683,17 @@
         <v>47076.42330000002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>265</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,17 @@
         <v>47076.42330000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>265</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +761,17 @@
         <v>47062.43880000003</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>265</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,17 @@
         <v>47058.29890000002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>265</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +842,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>265</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +878,17 @@
         <v>47154.62410000002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>265</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +917,17 @@
         <v>47154.62410000002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>265</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +956,17 @@
         <v>47654.62410000002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>265</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +995,17 @@
         <v>45854.63360000002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>265</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1034,17 @@
         <v>49112.84620000002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>265</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1076,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>265</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1115,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>265</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1154,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>265</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1193,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>265</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1232,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>265</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1271,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>265</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1310,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>265</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1349,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>265</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1388,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>265</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1427,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>265</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1466,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>265</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1505,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>265</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1544,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>265</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1583,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>265</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1622,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>265</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1661,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>265</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1700,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>265</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1739,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>265</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,13 +1775,19 @@
         <v>48483.94790895525</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>265</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>1.002547169811321</v>
       </c>
       <c r="M36" t="inlineStr"/>
     </row>
@@ -1606,7 +1814,7 @@
         <v>48483.94790895525</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1847,7 @@
         <v>47070.04960895525</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1913,7 @@
         <v>47923.64790895524</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1946,7 @@
         <v>48593.07700895525</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1979,7 @@
         <v>48593.07700895525</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +2012,7 @@
         <v>48593.07700895525</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +2045,7 @@
         <v>45519.22300895525</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +2078,7 @@
         <v>44397.22300895525</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2111,7 @@
         <v>78298.59370895525</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2144,7 @@
         <v>77045.90240895524</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2177,7 @@
         <v>77045.90240895524</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2210,7 @@
         <v>77035.15560895525</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2276,7 @@
         <v>77040.28240895525</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2309,7 @@
         <v>76853.38690895525</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2342,7 @@
         <v>76953.38690895525</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2375,7 @@
         <v>70598.29890895524</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -4015,14 +4223,10 @@
         <v>45298.56050895525</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>257</v>
-      </c>
-      <c r="J110" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
@@ -4052,19 +4256,11 @@
         <v>45298.56050895525</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>257</v>
-      </c>
-      <c r="J111" t="n">
-        <v>257</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4093,19 +4289,11 @@
         <v>45330.62300895525</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>257</v>
-      </c>
-      <c r="J112" t="n">
-        <v>257</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4134,14 +4322,10 @@
         <v>45368.04760895525</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>259</v>
-      </c>
-      <c r="J113" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
@@ -4174,14 +4358,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>259</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4213,14 +4391,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>259</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4249,14 +4421,10 @@
         <v>43526.77870895524</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>260</v>
-      </c>
-      <c r="J116" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
@@ -4286,19 +4454,11 @@
         <v>47515.05620895524</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>259</v>
-      </c>
-      <c r="J117" t="n">
-        <v>260</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4330,14 +4490,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>260</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4399,14 +4553,10 @@
         <v>47552.48080895524</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>260</v>
-      </c>
-      <c r="J120" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
@@ -4436,19 +4586,11 @@
         <v>47552.48080895524</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>261</v>
-      </c>
-      <c r="J121" t="n">
-        <v>260</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4477,19 +4619,11 @@
         <v>32052.48080895524</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>261</v>
-      </c>
-      <c r="J122" t="n">
-        <v>260</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4518,19 +4652,11 @@
         <v>32078.48080895524</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>260</v>
-      </c>
-      <c r="J123" t="n">
-        <v>260</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
